--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H2">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I2">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J2">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>1459.635027010107</v>
+        <v>10.02119491716733</v>
       </c>
       <c r="R2">
-        <v>13136.71524309096</v>
+        <v>90.19075425450599</v>
       </c>
       <c r="S2">
-        <v>0.2061392926468514</v>
+        <v>0.0011766675363013</v>
       </c>
       <c r="T2">
-        <v>0.2061392926468514</v>
+        <v>0.0011766675363013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H3">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I3">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J3">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>2404.623433516918</v>
+        <v>9.716964714325666</v>
       </c>
       <c r="R3">
-        <v>21641.61090165226</v>
+        <v>87.452682428931</v>
       </c>
       <c r="S3">
-        <v>0.3395967926876752</v>
+        <v>0.001140945468603276</v>
       </c>
       <c r="T3">
-        <v>0.3395967926876753</v>
+        <v>0.001140945468603276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H4">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I4">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J4">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>2128.272861862245</v>
+        <v>9.895040316829999</v>
       </c>
       <c r="R4">
-        <v>19154.4557567602</v>
+        <v>89.05536285146999</v>
       </c>
       <c r="S4">
-        <v>0.3005687409423447</v>
+        <v>0.001161854729645109</v>
       </c>
       <c r="T4">
-        <v>0.3005687409423448</v>
+        <v>0.001161854729645109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H5">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I5">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J5">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>964.7054906108448</v>
+        <v>3.947841860344333</v>
       </c>
       <c r="R5">
-        <v>8682.349415497602</v>
+        <v>35.530576743099</v>
       </c>
       <c r="S5">
-        <v>0.1362420767980627</v>
+        <v>0.0004635472509930566</v>
       </c>
       <c r="T5">
-        <v>0.1362420767980627</v>
+        <v>0.0004635472509930566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H6">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I6">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J6">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>19.089692514596</v>
+        <v>2479.910222801862</v>
       </c>
       <c r="R6">
-        <v>171.807232631364</v>
+        <v>22319.19200521676</v>
       </c>
       <c r="S6">
-        <v>0.002695972375961258</v>
+        <v>0.2911858192792749</v>
       </c>
       <c r="T6">
-        <v>0.002695972375961258</v>
+        <v>0.291185819279275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H7">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I7">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J7">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
-        <v>31.44863004093433</v>
+        <v>2404.623433516918</v>
       </c>
       <c r="R7">
-        <v>283.037670368409</v>
+        <v>21641.61090165226</v>
       </c>
       <c r="S7">
-        <v>0.004441383107001744</v>
+        <v>0.2823458035330298</v>
       </c>
       <c r="T7">
-        <v>0.004441383107001745</v>
+        <v>0.2823458035330298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H8">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I8">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J8">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>27.83440638810333</v>
+        <v>2448.691182995134</v>
       </c>
       <c r="R8">
-        <v>250.50965749293</v>
+        <v>22038.2206469562</v>
       </c>
       <c r="S8">
-        <v>0.003930958587532507</v>
+        <v>0.2875201455788117</v>
       </c>
       <c r="T8">
-        <v>0.003930958587532508</v>
+        <v>0.2875201455788118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H9">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I9">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J9">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>12.61680546309334</v>
+        <v>976.9586829112824</v>
       </c>
       <c r="R9">
-        <v>113.55124916784</v>
+        <v>8792.628146201541</v>
       </c>
       <c r="S9">
-        <v>0.001781828543093041</v>
+        <v>0.1147124246151599</v>
       </c>
       <c r="T9">
-        <v>0.001781828543093041</v>
+        <v>0.11471242461516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H10">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I10">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J10">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>6.837977219950667</v>
+        <v>51.57424581776599</v>
       </c>
       <c r="R10">
-        <v>61.541794979556</v>
+        <v>464.168212359894</v>
       </c>
       <c r="S10">
-        <v>0.0009657042761869495</v>
+        <v>0.006055738987675756</v>
       </c>
       <c r="T10">
-        <v>0.0009657042761869496</v>
+        <v>0.006055738987675758</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H11">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I11">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J11">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>11.26498059904011</v>
+        <v>50.008520033941</v>
       </c>
       <c r="R11">
-        <v>101.384825391361</v>
+        <v>450.076680305469</v>
       </c>
       <c r="S11">
-        <v>0.001590914913246018</v>
+        <v>0.005871894773906332</v>
       </c>
       <c r="T11">
-        <v>0.001590914913246018</v>
+        <v>0.005871894773906333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H12">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I12">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J12">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>9.970356341107777</v>
+        <v>50.92498907517</v>
       </c>
       <c r="R12">
-        <v>89.73320706997001</v>
+        <v>458.32490167653</v>
       </c>
       <c r="S12">
-        <v>0.0014080795305406</v>
+        <v>0.005979504632586155</v>
       </c>
       <c r="T12">
-        <v>0.0014080795305406</v>
+        <v>0.005979504632586156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H13">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I13">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J13">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>4.519372340817779</v>
+        <v>20.317633599389</v>
       </c>
       <c r="R13">
-        <v>40.67435106736001</v>
+        <v>182.858702394501</v>
       </c>
       <c r="S13">
-        <v>0.0006382555915037458</v>
+        <v>0.002385653614012662</v>
       </c>
       <c r="T13">
-        <v>0.0006382555915037459</v>
+        <v>0.002385653614012662</v>
       </c>
     </row>
   </sheetData>
